--- a/XLSX transformados/Jornada 2 - Visita vs Alianza Atlético de Sullana_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 2 - Visita vs Alianza Atlético de Sullana_posicion_jugadores.xlsx
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
         <v>962187</v>
@@ -578,7 +578,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I3" t="n">
         <v>1415942</v>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I4" t="n">
         <v>876927</v>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="I5" t="n">
         <v>590312</v>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
         <v>973547</v>
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I7" t="n">
         <v>1017760</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I8" t="n">
         <v>973682</v>
@@ -907,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I10" t="n">
         <v>47418</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="n">
         <v>874985</v>
@@ -1001,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="I12" t="n">
         <v>159931</v>
@@ -1095,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I14" t="n">
         <v>1006509</v>
@@ -1142,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I15" t="n">
         <v>31175</v>
@@ -1189,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I16" t="n">
         <v>981374</v>

--- a/XLSX transformados/Jornada 2 - Visita vs Alianza Atlético de Sullana_posicion_jugadores.xlsx
+++ b/XLSX transformados/Jornada 2 - Visita vs Alianza Atlético de Sullana_posicion_jugadores.xlsx
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>962187</v>
@@ -578,7 +578,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I3" t="n">
         <v>1415942</v>
@@ -625,7 +625,7 @@
         <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I4" t="n">
         <v>876927</v>
@@ -719,7 +719,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I6" t="n">
         <v>973547</v>
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I7" t="n">
         <v>1017760</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="n">
         <v>973682</v>
@@ -1001,7 +1001,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I12" t="n">
         <v>159931</v>
@@ -1048,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="n">
         <v>913398</v>
@@ -1095,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I14" t="n">
         <v>1006509</v>
@@ -1142,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I15" t="n">
         <v>31175</v>
@@ -1189,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I16" t="n">
         <v>981374</v>
